--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490363.8000730157</v>
+        <v>-464664.7609829464</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17410625.23004074</v>
+        <v>16765245.1615573</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9239495.60776531</v>
+        <v>9276921.751088625</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>111.6671173611182</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>35.63130344056455</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>54.36806965338256</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>102.1597576166847</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>287.3841776944312</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1054,19 +1054,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>82.8338820433414</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>73.29899740799712</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>248.995807838179</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1145,13 +1145,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>32.77389691395845</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1306,10 +1306,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>32.7482143536833</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>81.01098805494614</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>118.8123094339598</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1379,16 +1379,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>234.5833113561041</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
-        <v>136.1614161296816</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1853,10 +1853,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948849</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2005,7 +2005,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
-        <v>129.5445345985692</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800226</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2245,19 +2245,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513525</v>
       </c>
       <c r="G22" t="n">
-        <v>104.6302585404037</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>73.01514676193523</v>
+        <v>24.3431845617045</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2713,13 +2713,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>60.801187884122</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>144.4937753855482</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>98.73120706589825</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2962,13 +2962,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3187,13 +3187,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>116.043407939862</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225813</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>405.8008644413112</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>417.5253377496634</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>415.3149766385524</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>413.2012870545403</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>407.3530449561368</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>381.1481427242213</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>270.0031426724684</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925385</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>201.6308445169443</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>240.3943693174058</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>342.7550702267642</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>384.5711897043295</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>398.7153284477349</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245956</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930497</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>154.6003840628598</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>147.983502531745</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730226</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591138</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856831</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277817</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>71.5376393943239</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742937646</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>141.4132446762358</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>227.1849416185818</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>259.4129604006782</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>267.8502427095264</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>253.0704300308239</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>226.7021267811741</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402853</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
@@ -3907,16 +3907,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
@@ -4144,16 +4144,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742933594</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>628.8817772575625</v>
+        <v>1673.605911924354</v>
       </c>
       <c r="C2" t="n">
-        <v>200.3001029948308</v>
+        <v>1235.463439107777</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>799.5536542822216</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>365.7789094405168</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>341.9518838901286</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>341.9518838901286</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.82172933334481</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048482</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>607.5718832905909</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1256.08301530159</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1904.59414731259</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2451.092933271184</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024241</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024241</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2400.179770897279</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>2140.957468214297</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331261</v>
+        <v>2140.957468214297</v>
       </c>
       <c r="W2" t="n">
-        <v>1074.529126782698</v>
+        <v>2140.142417665734</v>
       </c>
       <c r="X2" t="n">
-        <v>1059.427067402413</v>
+        <v>2104.151202069204</v>
       </c>
       <c r="Y2" t="n">
-        <v>1055.18134774247</v>
+        <v>1695.865078368857</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>558.5766849517776</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>452.1202237884199</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>357.0299349349731</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>262.9095202619268</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>179.5256818780884</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>94.14059214427235</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048482</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>78.46861312094242</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>403.0269380871547</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1051.538070098154</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1598.471923344954</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1715.644701439294</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1652.189263887677</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1522.010620218278</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1345.674073218247</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1146.556555280246</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>961.2338010134399</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>806.36636525232</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>679.8805860315407</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>1131.463100572366</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>958.901389055591</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>793.0233962571137</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>623.2653925078511</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>446.5583384696073</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>280.967063495435</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0648891858095</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048482</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>138.9846251251747</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>413.7430796963102</v>
       </c>
       <c r="L4" t="n">
-        <v>308.7021231727439</v>
+        <v>831.9529614642713</v>
       </c>
       <c r="M4" t="n">
-        <v>728.7550221176472</v>
+        <v>1291.436828645185</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1733.695631802829</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2153.36488102861</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2452.054223159909</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024241</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024241</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2461.005629322237</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>2406.088387248114</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>2127.655386501219</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1840.699878371649</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>1568.673473957941</v>
       </c>
       <c r="X4" t="n">
-        <v>368.4973157021125</v>
+        <v>1323.281719291353</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.0776450162207</v>
+        <v>1323.281719291353</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1030.653802879758</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C5" t="n">
-        <v>996.551734103585</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D5" t="n">
-        <v>893.3600597432974</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E5" t="n">
-        <v>863.6257189419966</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1477.116202953456</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>1476.301152404893</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X5" t="n">
-        <v>1461.199093024608</v>
+        <v>1411.97692004016</v>
       </c>
       <c r="Y5" t="n">
-        <v>1456.953373364666</v>
+        <v>1407.731200380218</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.2742057495001</v>
+        <v>826.6792100324072</v>
       </c>
       <c r="C7" t="n">
-        <v>122.603617826933</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="D7" t="n">
-        <v>122.603617826933</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E7" t="n">
-        <v>122.603617826933</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>269.215608100497</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2574.603613815591</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>2328.724167394046</v>
       </c>
       <c r="U7" t="n">
-        <v>1429.886162364244</v>
+        <v>2050.291166647151</v>
       </c>
       <c r="V7" t="n">
-        <v>1142.930654234675</v>
+        <v>1763.335658517582</v>
       </c>
       <c r="W7" t="n">
-        <v>870.9042498209665</v>
+        <v>1491.309254103874</v>
       </c>
       <c r="X7" t="n">
-        <v>625.5124951543789</v>
+        <v>1245.917499437286</v>
       </c>
       <c r="Y7" t="n">
-        <v>398.0928244684872</v>
+        <v>1018.497828751394</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1777.08642487697</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C8" t="n">
-        <v>1338.943952060393</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>903.0341672348375</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>469.2594223931327</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>41.39199280234043</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>41.39199280234043</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>41.39199280234043</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>40.97520342948044</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>476.2298908823983</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>983.2980333222188</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1372.537964281145</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1372.537964281145</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1372.537964281145</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1372.537964281145</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
-        <v>1372.537964281145</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1879.606106720965</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2048.760171474022</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2048.760171474022</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2048.760171474022</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.760171474022</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.760171474022</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="W8" t="n">
-        <v>2047.945120925459</v>
+        <v>2636.140829505129</v>
       </c>
       <c r="X8" t="n">
-        <v>2032.843061545174</v>
+        <v>2216.99836608444</v>
       </c>
       <c r="Y8" t="n">
-        <v>2028.597341885231</v>
+        <v>2212.752646424497</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.1469484207732</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>440.6904872574155</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>345.6001984039688</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>251.4797837309225</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>168.0959453470841</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>82.71085561326797</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>40.97520342948044</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>67.03887658993803</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>391.5972015561504</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>898.6653439959707</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1079.974044374129</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1079.974044374129</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1079.974044374129</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1079.974044374129</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1079.974044374129</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1587.04218681395</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1704.214964908289</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1640.759527356672</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1510.580883687274</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1334.244336687242</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1135.126818749242</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>949.8040644824357</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>794.9366287213156</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>668.4508495005364</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>891.4712405064117</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>718.9095289896367</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>553.0315361911594</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>383.2735324418966</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>206.5664784036528</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>40.97520342948044</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>40.97520342948044</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>40.97520342948044</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>40.97520342948044</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>40.97520342948044</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>459.1850851974415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>918.6689523783546</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1360.927755535999</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1780.597004761781</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2048.760171474022</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2048.760171474022</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2027.342350179394</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1868.10098147739</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1622.221535055845</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1343.788534308951</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1343.788534308951</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1343.788534308951</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1310.709529911291</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="Y10" t="n">
-        <v>1083.289859225399</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1063.05774707096</v>
+        <v>2499.166412267312</v>
       </c>
       <c r="C11" t="n">
-        <v>943.0453132992834</v>
+        <v>2061.023939450735</v>
       </c>
       <c r="D11" t="n">
-        <v>507.1355284737278</v>
+        <v>1625.11415462518</v>
       </c>
       <c r="E11" t="n">
-        <v>73.36078363202299</v>
+        <v>1191.339409783475</v>
       </c>
       <c r="F11" t="n">
-        <v>73.36078363202299</v>
+        <v>763.4719801926828</v>
       </c>
       <c r="G11" t="n">
-        <v>73.36078363202299</v>
+        <v>362.0741488159468</v>
       </c>
       <c r="H11" t="n">
-        <v>73.36078363202299</v>
+        <v>72.94399425916303</v>
       </c>
       <c r="I11" t="n">
-        <v>72.94399425916299</v>
+        <v>72.94399425916303</v>
       </c>
       <c r="J11" t="n">
-        <v>508.1986817120808</v>
+        <v>508.1986817120809</v>
       </c>
       <c r="K11" t="n">
         <v>1342.548973670259</v>
       </c>
       <c r="L11" t="n">
-        <v>1342.548973670259</v>
+        <v>2245.230902627402</v>
       </c>
       <c r="M11" t="n">
-        <v>1342.548973670259</v>
+        <v>2245.230902627402</v>
       </c>
       <c r="N11" t="n">
-        <v>1342.548973670259</v>
+        <v>2245.230902627402</v>
       </c>
       <c r="O11" t="n">
-        <v>2245.230902627401</v>
+        <v>2245.230902627402</v>
       </c>
       <c r="P11" t="n">
         <v>3073.540777460797</v>
       </c>
       <c r="Q11" t="n">
-        <v>3620.039563419391</v>
+        <v>3620.039563419392</v>
       </c>
       <c r="R11" t="n">
-        <v>3647.19971295815</v>
+        <v>3647.199712958152</v>
       </c>
       <c r="S11" t="n">
-        <v>3563.547839141987</v>
+        <v>3563.547839141989</v>
       </c>
       <c r="T11" t="n">
-        <v>3343.480612015025</v>
+        <v>3563.547839141989</v>
       </c>
       <c r="U11" t="n">
-        <v>3084.258309332042</v>
+        <v>3563.547839141989</v>
       </c>
       <c r="V11" t="n">
-        <v>2721.641359265868</v>
+        <v>3563.547839141989</v>
       </c>
       <c r="W11" t="n">
-        <v>2316.785904676904</v>
+        <v>3326.594999388348</v>
       </c>
       <c r="X11" t="n">
-        <v>1897.643441256214</v>
+        <v>2907.452535967659</v>
       </c>
       <c r="Y11" t="n">
-        <v>1489.357317555868</v>
+        <v>2499.166412267312</v>
       </c>
     </row>
     <row r="12">
@@ -5100,40 +5100,40 @@
         <v>472.6592780870981</v>
       </c>
       <c r="D12" t="n">
-        <v>377.5689892336513</v>
+        <v>377.5689892336514</v>
       </c>
       <c r="E12" t="n">
-        <v>283.448574560605</v>
+        <v>283.4485745606051</v>
       </c>
       <c r="F12" t="n">
-        <v>200.0647361767666</v>
+        <v>200.0647361767667</v>
       </c>
       <c r="G12" t="n">
-        <v>114.6796464429505</v>
+        <v>114.6796464429506</v>
       </c>
       <c r="H12" t="n">
-        <v>72.94399425916299</v>
+        <v>72.94399425916303</v>
       </c>
       <c r="I12" t="n">
-        <v>99.00766741962059</v>
+        <v>99.00766741962063</v>
       </c>
       <c r="J12" t="n">
-        <v>423.5659923858329</v>
+        <v>423.565992385833</v>
       </c>
       <c r="K12" t="n">
-        <v>1078.272039011557</v>
+        <v>423.565992385833</v>
       </c>
       <c r="L12" t="n">
-        <v>1078.272039011557</v>
+        <v>423.565992385833</v>
       </c>
       <c r="M12" t="n">
-        <v>1078.272039011557</v>
+        <v>423.565992385833</v>
       </c>
       <c r="N12" t="n">
-        <v>1078.272039011557</v>
+        <v>423.565992385833</v>
       </c>
       <c r="O12" t="n">
-        <v>1078.272039011557</v>
+        <v>423.565992385833</v>
       </c>
       <c r="P12" t="n">
         <v>1078.272039011557</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4400313360943</v>
+        <v>923.4400313360942</v>
       </c>
       <c r="C13" t="n">
-        <v>750.8783198193192</v>
+        <v>750.8783198193191</v>
       </c>
       <c r="D13" t="n">
         <v>585.000327020842</v>
@@ -5185,16 +5185,16 @@
         <v>415.2423232715792</v>
       </c>
       <c r="F13" t="n">
-        <v>238.5352692333353</v>
+        <v>238.5352692333354</v>
       </c>
       <c r="G13" t="n">
         <v>72.94399425916299</v>
       </c>
       <c r="H13" t="n">
-        <v>72.94399425916299</v>
+        <v>72.94399425916303</v>
       </c>
       <c r="I13" t="n">
-        <v>72.94399425916299</v>
+        <v>72.94399425916303</v>
       </c>
       <c r="J13" t="n">
         <v>159.5236794238529</v>
@@ -5221,16 +5221,16 @@
         <v>2689.603604161963</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.603604161962</v>
+        <v>2689.603604161963</v>
       </c>
       <c r="S13" t="n">
         <v>2671.364435119278</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.484988697733</v>
+        <v>2425.484988697734</v>
       </c>
       <c r="U13" t="n">
-        <v>2147.051987950838</v>
+        <v>2147.051987950839</v>
       </c>
       <c r="V13" t="n">
         <v>1860.096479821269</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5303,25 +5303,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.0973401405612</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C16" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D16" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E16" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5461,25 +5461,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2422.142297502201</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2143.709296755305</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1856.753788625736</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1584.727384212028</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1339.33562954544</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.915958859548</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5519,10 +5519,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>926.7810588588591</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C19" t="n">
-        <v>754.2193473420839</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5674,7 +5674,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5689,34 +5689,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309249</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173581</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173581</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471578</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2428.826016220498</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2150.393015473604</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1863.437507344034</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1591.411102930326</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1346.019348263738</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1118.599677577846</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5756,10 +5756,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5777,25 +5777,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>639.1929661716165</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>473.3149733731392</v>
       </c>
       <c r="E22" t="n">
-        <v>473.3149733731391</v>
+        <v>303.5569696238765</v>
       </c>
       <c r="F22" t="n">
-        <v>296.6079193348953</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961037</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961037</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>949.5782250957675</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="C25" t="n">
-        <v>777.0165135789924</v>
+        <v>639.1929661716165</v>
       </c>
       <c r="D25" t="n">
-        <v>611.1385207805151</v>
+        <v>473.3149733731392</v>
       </c>
       <c r="E25" t="n">
-        <v>441.3805170312523</v>
+        <v>303.5569696238765</v>
       </c>
       <c r="F25" t="n">
-        <v>264.6734629930086</v>
+        <v>126.8499155856327</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710512</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1614.208269167234</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1368.816514500646</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1141.396843814755</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6418,16 +6418,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>414.500552094942</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>414.500552094942</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>414.500552094942</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>949.5782250957673</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C31" t="n">
-        <v>777.0165135789922</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D31" t="n">
-        <v>677.2880215932364</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E31" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F31" t="n">
-        <v>330.8229638057298</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1614.208269167234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6704,10 +6704,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>790.3368563937634</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>790.3368563937634</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C38" t="n">
         <v>2003.648111803009</v>
@@ -7163,13 +7163,13 @@
         <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197252</v>
+        <v>370.2971508197253</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7187,37 +7187,37 @@
         <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P38" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q38" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673519</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="39">
@@ -7245,13 +7245,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K39" t="n">
         <v>1102.894748428211</v>
@@ -7309,34 +7309,34 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716791</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463115</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850154</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882662</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758677</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823633</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856844</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
@@ -7345,37 +7345,37 @@
         <v>1859.224161694962</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2294.966764156104</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361806</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461498</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579742</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290615</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281947</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231235</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230403</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835861</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197261</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7430,31 +7430,31 @@
         <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673522</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7482,13 +7482,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
         <v>1102.894748428211</v>
@@ -7546,25 +7546,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936668</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716789</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463112</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882657</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7585,13 +7585,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
         <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7600,7 +7600,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231236</v>
@@ -7609,10 +7609,10 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
     <row r="44">
@@ -7637,13 +7637,13 @@
         <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197252</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7652,31 +7652,31 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245846</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079242</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037837</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
         <v>4364.592902403413</v>
@@ -7719,28 +7719,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7786,49 +7786,49 @@
         <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
         <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823633</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856844</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290618</v>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>121.1234907850386</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>655.0617495060602</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.0617495060601</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060602</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>6.257489509822335</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>384.4104887602591</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>301.7064061932306</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8374,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>512.1900428685055</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>393.1716474332586</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685053</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685054</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920795</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685053</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>270.8718855679203</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>911.7999282395378</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395372</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>27.43449448359434</v>
+        <v>27.4344944835957</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9404,13 +9404,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10188,10 +10188,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10352,13 +10352,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>901.1523322283551</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497184</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.090836660971</v>
+        <v>463.0908366609692</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>463.0908366609692</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>314.9487386544516</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>166.2235886869729</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,10 +23701,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
-        <v>107.2592358276477</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-5.053378189940796e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,10 +23938,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
-        <v>113.8761173587601</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-8.538708137538961e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="G22" t="n">
-        <v>59.30510368402693</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>90.92021546249538</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>110.0349065174853</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>65.48800580459428</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>52.01701577190809</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627252</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-3.315570040740567e-12</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.597567102697212e-13</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>787399.127418679</v>
+        <v>801598.642255982</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>787399.127418679</v>
+        <v>802364.9298878798</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>792807.4430853775</v>
+        <v>802364.9298878798</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>818233.8568705537</v>
+        <v>818233.8568705535</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>818233.8568705537</v>
+        <v>818233.8568705535</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>828465.3944437733</v>
+        <v>828465.3944437734</v>
       </c>
     </row>
     <row r="15">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187651.5619616429</v>
+        <v>187651.561961643</v>
       </c>
       <c r="C2" t="n">
-        <v>187651.5619616431</v>
+        <v>187651.561961643</v>
       </c>
       <c r="D2" t="n">
         <v>187651.561961643</v>
       </c>
       <c r="E2" t="n">
-        <v>144778.7712754181</v>
+        <v>144778.771275418</v>
       </c>
       <c r="F2" t="n">
+        <v>184400.1544480733</v>
+      </c>
+      <c r="G2" t="n">
         <v>184400.1544480734</v>
-      </c>
-      <c r="G2" t="n">
-        <v>184400.1544480733</v>
       </c>
       <c r="H2" t="n">
         <v>184400.1544480734</v>
@@ -26344,16 +26344,16 @@
         <v>184400.1544480733</v>
       </c>
       <c r="M2" t="n">
-        <v>184400.1544480734</v>
+        <v>184400.1544480733</v>
       </c>
       <c r="N2" t="n">
         <v>187651.561961643</v>
       </c>
       <c r="O2" t="n">
+        <v>187651.5619616429</v>
+      </c>
+      <c r="P2" t="n">
         <v>187651.561961643</v>
-      </c>
-      <c r="P2" t="n">
-        <v>187651.5619616429</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>219526.2586797194</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4023.346928949046</v>
       </c>
       <c r="D3" t="n">
-        <v>27302.57079477383</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119314.720354312</v>
+        <v>72938.04361534405</v>
       </c>
       <c r="F3" t="n">
-        <v>105000.4827540558</v>
+        <v>105000.4827540557</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>171392.9763877636</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3205.121347375224</v>
       </c>
       <c r="L3" t="n">
-        <v>22245.22726401218</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99584.38187400265</v>
+        <v>60876.72976950143</v>
       </c>
       <c r="N3" t="n">
-        <v>88373.14763716067</v>
+        <v>88373.1476371606</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418668</v>
+        <v>167346.9247704307</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>191253.6420962581</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>63940.95018941455</v>
+        <v>63940.95018941459</v>
       </c>
       <c r="F4" t="n">
         <v>81439.57146904284</v>
@@ -26439,25 +26439,25 @@
         <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904281</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
-        <v>94325.77438500366</v>
+        <v>94325.77438500378</v>
       </c>
       <c r="O4" t="n">
         <v>94325.77438500366</v>
       </c>
       <c r="P4" t="n">
-        <v>94325.77438500368</v>
+        <v>94325.77438500366</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>73455.35436996847</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>64768.75460640513</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>55437.43563696387</v>
+        <v>55437.43563696391</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-219925.4996771561</v>
+        <v>-272676.9758584756</v>
       </c>
       <c r="C6" t="n">
-        <v>-77734.19901744605</v>
+        <v>-55847.39778862217</v>
       </c>
       <c r="D6" t="n">
-        <v>-95673.40553579404</v>
+        <v>-51824.05085967314</v>
       </c>
       <c r="E6" t="n">
-        <v>-93914.33490527235</v>
+        <v>-47843.89238549184</v>
       </c>
       <c r="F6" t="n">
-        <v>-79758.13838081784</v>
+        <v>-79781.36272020036</v>
       </c>
       <c r="G6" t="n">
-        <v>25242.34437323794</v>
+        <v>25219.12003385536</v>
       </c>
       <c r="H6" t="n">
-        <v>25242.344373238</v>
+        <v>25219.12003385536</v>
       </c>
       <c r="I6" t="n">
-        <v>25242.34437323798</v>
+        <v>25219.12003385534</v>
       </c>
       <c r="J6" t="n">
-        <v>-85772.12097175219</v>
+        <v>-146173.8563539082</v>
       </c>
       <c r="K6" t="n">
-        <v>25242.34437323797</v>
+        <v>22013.99868648007</v>
       </c>
       <c r="L6" t="n">
-        <v>2997.117109225757</v>
+        <v>25219.12003385534</v>
       </c>
       <c r="M6" t="n">
-        <v>-74342.03750076464</v>
+        <v>-35657.60973564609</v>
       </c>
       <c r="N6" t="n">
-        <v>-70562.97478661107</v>
+        <v>-70562.97478661113</v>
       </c>
       <c r="O6" t="n">
-        <v>17810.17285054957</v>
+        <v>17810.17285054963</v>
       </c>
       <c r="P6" t="n">
-        <v>17810.17285054953</v>
+        <v>17810.1728505496</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060602</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>512.1900428685054</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>911.7999282395374</v>
+        <v>911.799928239538</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060602</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.45345710179674</v>
       </c>
       <c r="D4" t="n">
-        <v>87.89418534840109</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>399.609885371032</v>
+        <v>244.284721631681</v>
       </c>
       <c r="F4" t="n">
-        <v>366.4605751452079</v>
+        <v>366.4605751452074</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060602</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179674</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840109</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.609885371032</v>
+        <v>244.284721631681</v>
       </c>
       <c r="N4" t="n">
-        <v>307.7838677081857</v>
+        <v>307.7838677081849</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060602</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179674</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840109</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.609885371032</v>
+        <v>244.284721631681</v>
       </c>
       <c r="N4" t="n">
-        <v>366.4605751452079</v>
+        <v>366.4605751452074</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>319.8835696161817</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>379.3197353459178</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>189.0525823039467</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>329.3909293606152</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>127.5668610920512</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27774,19 +27774,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>88.00221235826591</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>84.34995760698618</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173.0407669418796</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>185.0926579417333</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27916,7 +27916,7 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>210.1896227662384</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>144.1344859240867</v>
       </c>
     </row>
     <row r="11">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.182787284255028e-12</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,19 +34708,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>121.1234907850386</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>655.0617495060602</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.0617495060601</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060602</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>6.257489509822335</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>384.4104887602591</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>301.7064061932306</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>512.1900428685055</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>393.1716474332586</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685053</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685054</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920795</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685053</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -35340,16 +35340,16 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>446.7260637956007</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>270.8718855679203</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,10 +35410,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>911.7999282395378</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,7 +35422,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395372</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>27.43449448359434</v>
+        <v>27.4344944835957</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35887,13 +35887,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36057,7 +36057,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165088</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36124,13 +36124,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36908,10 +36908,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37072,13 +37072,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37555,16 +37555,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>901.1523322283551</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497184</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778282</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>293.769502834844</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>438.669934346789</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>480.3608287033062</v>
       </c>
       <c r="N40" t="n">
         <v>462.9617741343482</v>
@@ -37716,10 +37716,10 @@
         <v>440.1440428900419</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.090836660971</v>
+        <v>463.0908366609692</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37950,10 +37950,10 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
         <v>186.1274021209015</v>
@@ -38020,7 +38020,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38032,10 +38032,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>463.0908366609692</v>
       </c>
       <c r="R44" t="n">
         <v>170.862691669754</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38175,19 +38175,19 @@
         <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348442</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L46" t="n">
-        <v>438.669934346789</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
